--- a/book_details_fastapi_integration_mongo/report/billing_excel_record.xlsx
+++ b/book_details_fastapi_integration_mongo/report/billing_excel_record.xlsx
@@ -55,10 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,163 +440,185 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>overall_total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>oil</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>227</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>12485</v>
       </c>
+      <c r="F2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>shampoo</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>39530</v>
       </c>
+      <c r="F3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>soap</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>200</v>
       </c>
+      <c r="F4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>harpic</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>720</v>
       </c>
+      <c r="F5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>bottle_001</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>258</v>
       </c>
+      <c r="F6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>sfwff</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>1000</v>
       </c>
+      <c r="F7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>laptop</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>20000</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr"/>
+      <c r="B9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="n">
+        <v>74193</v>
       </c>
     </row>
   </sheetData>
